--- a/ukr-temp/pay-tuition-2022/appendix/a39b24c9-5e92-4b8f-9e9a-969686be0853.xlsx
+++ b/ukr-temp/pay-tuition-2022/appendix/a39b24c9-5e92-4b8f-9e9a-969686be0853.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21616\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github.io\yysCyber.github.io\ukr-temp\pay-tuition-2022\appendix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CECBA4-24BA-48B0-98A5-546F20E247F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64162494-7B34-4162-974F-F61DA8C9BB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -250,21 +250,6 @@
     <t>人民币</t>
   </si>
   <si>
-    <t>收款人开户银行名称(英文)</t>
-  </si>
-  <si>
-    <t>收款人开户银行地址(英文)</t>
-  </si>
-  <si>
-    <t>收款人账号(英文)</t>
-  </si>
-  <si>
-    <t>收款人名称(英文)</t>
-  </si>
-  <si>
-    <t>收款人地址(英文)</t>
-  </si>
-  <si>
     <t>国家</t>
   </si>
   <si>
@@ -302,10 +287,6 @@
   </si>
   <si>
     <t>xxx.00</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>xxx</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -354,6 +335,30 @@
   </si>
   <si>
     <t>Hao XX, Passport No. C123456, Tuition Fees.</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx元整</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人开户银行名称</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人开户银行地址</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人账号</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人名称</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>收款人地址</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1113,6 +1118,337 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -1177,10 +1513,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -1203,333 +1535,6 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="3" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
   </cellXfs>
@@ -1809,7 +1814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F24" sqref="F24:M24"/>
     </sheetView>
   </sheetViews>
@@ -1830,821 +1835,872 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="102"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="102"/>
+      <c r="H1" s="102"/>
+      <c r="I1" s="102"/>
+      <c r="J1" s="102"/>
+      <c r="K1" s="102"/>
+      <c r="L1" s="102"/>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:13" ht="150" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="103"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
     </row>
     <row r="3" spans="1:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="114"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24" t="s">
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="107"/>
+      <c r="H3" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="28"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="110"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="112"/>
     </row>
     <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="34" t="s">
+      <c r="A4" s="115"/>
+      <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="81" t="s">
+      <c r="D4" s="117"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="82"/>
+      <c r="H4" s="28"/>
       <c r="I4" s="12"/>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="82"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="118"/>
     </row>
     <row r="5" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="36" t="s">
+      <c r="A5" s="116"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="119" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="84"/>
+      <c r="D5" s="120"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="40"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="122"/>
+      <c r="M5" s="123"/>
     </row>
     <row r="6" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44" t="s">
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88"/>
+      <c r="G6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="45"/>
+      <c r="H6" s="90"/>
       <c r="I6" s="17"/>
-      <c r="J6" s="46" t="s">
+      <c r="J6" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="47"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="49"/>
+      <c r="K6" s="92"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="94"/>
     </row>
     <row r="7" spans="1:13" ht="42.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="75"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53" t="s">
+      <c r="C7" s="95"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="54"/>
+      <c r="H7" s="99"/>
       <c r="I7" s="14"/>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="56"/>
+      <c r="K7" s="99"/>
+      <c r="L7" s="100"/>
+      <c r="M7" s="101"/>
     </row>
     <row r="8" spans="1:13" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="76"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="80"/>
     </row>
     <row r="9" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="89"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="91"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="89"/>
-      <c r="H9" s="91"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="83"/>
       <c r="I9" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="92"/>
+      <c r="J9" s="18"/>
       <c r="K9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="89"/>
-      <c r="M9" s="93"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="84"/>
     </row>
     <row r="10" spans="1:13" ht="29.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="96"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
       <c r="I10" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="97"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="85"/>
     </row>
     <row r="11" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="75"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="96"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
       <c r="I11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="99"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="101"/>
+      <c r="J11" s="74"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="76"/>
     </row>
     <row r="12" spans="1:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="75"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="60" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67"/>
+      <c r="F12" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="G12" s="60"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="100"/>
-      <c r="M12" s="101"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="75"/>
+      <c r="K12" s="75"/>
+      <c r="L12" s="75"/>
+      <c r="M12" s="76"/>
     </row>
     <row r="13" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="75"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="103"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="60" t="s">
+      <c r="C13" s="66"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="60" t="s">
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="60"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="105"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="70"/>
     </row>
     <row r="14" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="76"/>
-      <c r="B14" s="61" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="110" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="111"/>
-      <c r="I14" s="64" t="s">
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" s="53"/>
+      <c r="I14" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="65"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="106" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="107"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14" s="58"/>
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="22" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="108" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="67" t="s">
+      <c r="C15" s="59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="108" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="109"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="I15" s="60"/>
       <c r="J15" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="K15" s="112" t="s">
+      <c r="K15" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="113"/>
-      <c r="M15" s="114"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="65"/>
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="75"/>
-      <c r="B16" s="69" t="s">
+      <c r="A16" s="20"/>
+      <c r="B16" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="47"/>
+      <c r="M16" s="48"/>
+    </row>
+    <row r="17" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="48"/>
+    </row>
+    <row r="18" spans="1:13" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="48"/>
+    </row>
+    <row r="19" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="36"/>
+    </row>
+    <row r="20" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="117"/>
-    </row>
-    <row r="17" spans="1:13" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="75"/>
-      <c r="B17" s="69" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="116"/>
-      <c r="M17" s="117"/>
-    </row>
-    <row r="18" spans="1:13" s="1" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="75"/>
-      <c r="B18" s="69" t="s">
+      <c r="I20" s="19"/>
+      <c r="J20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="115"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116"/>
-      <c r="M18" s="117"/>
-    </row>
-    <row r="19" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="75"/>
-      <c r="B19" s="69" t="s">
+      <c r="K20" s="34"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="36"/>
+    </row>
+    <row r="21" spans="1:13" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="115"/>
-      <c r="G19" s="119"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="119"/>
-      <c r="K19" s="119"/>
-      <c r="L19" s="119"/>
-      <c r="M19" s="120"/>
-    </row>
-    <row r="20" spans="1:13" s="1" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="75"/>
-      <c r="B20" s="69" t="s">
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
+    </row>
+    <row r="22" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="36"/>
+    </row>
+    <row r="23" spans="1:13" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="16" t="s">
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="36"/>
+    </row>
+    <row r="24" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G20" s="118"/>
-      <c r="H20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="I20" s="118"/>
-      <c r="J20" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="K20" s="115"/>
-      <c r="L20" s="119"/>
-      <c r="M20" s="120"/>
-    </row>
-    <row r="21" spans="1:13" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="75"/>
-      <c r="B21" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="74"/>
-    </row>
-    <row r="22" spans="1:13" s="1" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="75"/>
-      <c r="B22" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="115"/>
-      <c r="G22" s="119"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="119"/>
-      <c r="K22" s="119"/>
-      <c r="L22" s="119"/>
-      <c r="M22" s="120"/>
-    </row>
-    <row r="23" spans="1:13" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="75"/>
-      <c r="B23" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="115" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="119"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="119"/>
-      <c r="M23" s="120"/>
-    </row>
-    <row r="24" spans="1:13" s="1" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="76"/>
-      <c r="B24" s="86" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="121" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="122"/>
-      <c r="M24" s="123"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
     </row>
     <row r="25" spans="1:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="I25" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="79" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="80"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="80"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="80"/>
-      <c r="G29" s="80"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="80"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="80"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="80"/>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="80"/>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="80"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="80"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="80"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="80"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
-      <c r="G34" s="80"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="80"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
-      <c r="M34" s="80"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="80"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="80"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="80"/>
-      <c r="B38" s="80"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="80"/>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="80"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="80"/>
-      <c r="B41" s="80"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
-      <c r="E41" s="80"/>
-      <c r="F41" s="80"/>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="80"/>
-      <c r="B42" s="80"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="80"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="80"/>
-      <c r="B45" s="80"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
-      <c r="E45" s="80"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="80"/>
-      <c r="B46" s="80"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="80"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="80"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="C8:M8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:M21"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:M16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F17:M17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:M18"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A15:A24"/>
@@ -2661,57 +2717,6 @@
     <mergeCell ref="B19:E19"/>
     <mergeCell ref="F19:M19"/>
     <mergeCell ref="B20:E20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:M21"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:M16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F17:M17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:M18"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="C8:M8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="L5:M5"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
